--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.547364199347592</v>
+        <v>35.86137133333333</v>
       </c>
       <c r="N2">
-        <v>0.547364199347592</v>
+        <v>107.584114</v>
       </c>
       <c r="O2">
-        <v>0.04034024372622288</v>
+        <v>0.6778966622414776</v>
       </c>
       <c r="P2">
-        <v>0.04034024372622288</v>
+        <v>0.6778966622414776</v>
       </c>
       <c r="Q2">
-        <v>59.12179869205427</v>
+        <v>3975.606962726473</v>
       </c>
       <c r="R2">
-        <v>59.12179869205427</v>
+        <v>35780.46266453826</v>
       </c>
       <c r="S2">
-        <v>0.01037144782586724</v>
+        <v>0.1701375587990754</v>
       </c>
       <c r="T2">
-        <v>0.01037144782586724</v>
+        <v>0.1701375587990754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.0213242563392</v>
+        <v>0.5645386666666666</v>
       </c>
       <c r="N3">
-        <v>13.0213242563392</v>
+        <v>1.693616</v>
       </c>
       <c r="O3">
-        <v>0.9596597562737771</v>
+        <v>0.01067161861386675</v>
       </c>
       <c r="P3">
-        <v>0.9596597562737771</v>
+        <v>0.01067161861386675</v>
       </c>
       <c r="Q3">
-        <v>1406.456820348925</v>
+        <v>62.58499802103644</v>
       </c>
       <c r="R3">
-        <v>1406.456820348925</v>
+        <v>563.264982189328</v>
       </c>
       <c r="S3">
-        <v>0.2467278373508695</v>
+        <v>0.002678347955563913</v>
       </c>
       <c r="T3">
-        <v>0.2467278373508695</v>
+        <v>0.002678347955563913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>183.226143531234</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>183.226143531234</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.4361311035993117</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.4361311035993117</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.547364199347592</v>
+        <v>16.38778266666667</v>
       </c>
       <c r="N4">
-        <v>0.547364199347592</v>
+        <v>49.163348</v>
       </c>
       <c r="O4">
-        <v>0.04034024372622288</v>
+        <v>0.3097824416141609</v>
       </c>
       <c r="P4">
-        <v>0.04034024372622288</v>
+        <v>0.3097824416141609</v>
       </c>
       <c r="Q4">
-        <v>100.2914313535208</v>
+        <v>1816.756594935054</v>
       </c>
       <c r="R4">
-        <v>100.2914313535208</v>
+        <v>16350.80935441548</v>
       </c>
       <c r="S4">
-        <v>0.01759363501578279</v>
+        <v>0.07774876513003962</v>
       </c>
       <c r="T4">
-        <v>0.01759363501578279</v>
+        <v>0.07774876513003962</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>183.226143531234</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>183.226143531234</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.4361311035993117</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.4361311035993117</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.0213242563392</v>
+        <v>0.08724833333333333</v>
       </c>
       <c r="N5">
-        <v>13.0213242563392</v>
+        <v>0.261745</v>
       </c>
       <c r="O5">
-        <v>0.9596597562737771</v>
+        <v>0.001649277530494842</v>
       </c>
       <c r="P5">
-        <v>0.9596597562737771</v>
+        <v>0.001649277530494842</v>
       </c>
       <c r="Q5">
-        <v>2385.847027158745</v>
+        <v>9.672387546537221</v>
       </c>
       <c r="R5">
-        <v>2385.847027158745</v>
+        <v>87.05148791883499</v>
       </c>
       <c r="S5">
-        <v>0.4185374685835289</v>
+        <v>0.0004139333742885497</v>
       </c>
       <c r="T5">
-        <v>0.4185374685835289</v>
+        <v>0.0004139333742885497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.2405434208797</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>80.2405434208797</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.547364199347592</v>
+        <v>35.86137133333333</v>
       </c>
       <c r="N6">
-        <v>0.547364199347592</v>
+        <v>107.584114</v>
       </c>
       <c r="O6">
-        <v>0.04034024372622288</v>
+        <v>0.6778966622414776</v>
       </c>
       <c r="P6">
-        <v>0.04034024372622288</v>
+        <v>0.6778966622414776</v>
       </c>
       <c r="Q6">
-        <v>43.92080080478551</v>
+        <v>6628.680499444476</v>
       </c>
       <c r="R6">
-        <v>43.92080080478551</v>
+        <v>59658.12449500028</v>
       </c>
       <c r="S6">
-        <v>0.00770481115417013</v>
+        <v>0.2836768143350574</v>
       </c>
       <c r="T6">
-        <v>0.00770481115417013</v>
+        <v>0.2836768143350574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.2405434208797</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>80.2405434208797</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.1909956520456438</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.0213242563392</v>
+        <v>0.5645386666666666</v>
       </c>
       <c r="N7">
-        <v>13.0213242563392</v>
+        <v>1.693616</v>
       </c>
       <c r="O7">
-        <v>0.9596597562737771</v>
+        <v>0.01067161861386675</v>
       </c>
       <c r="P7">
-        <v>0.9596597562737771</v>
+        <v>0.01067161861386675</v>
       </c>
       <c r="Q7">
-        <v>1044.83813438814</v>
+        <v>104.350344445344</v>
       </c>
       <c r="R7">
-        <v>1044.83813438814</v>
+        <v>939.153100008096</v>
       </c>
       <c r="S7">
-        <v>0.1832908408914737</v>
+        <v>0.004465711281378239</v>
       </c>
       <c r="T7">
-        <v>0.1832908408914737</v>
+        <v>0.004465711281378239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.6386223924831</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>48.6386223924831</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.1157739591783078</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.1157739591783078</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.547364199347592</v>
+        <v>16.38778266666667</v>
       </c>
       <c r="N8">
-        <v>0.547364199347592</v>
+        <v>49.163348</v>
       </c>
       <c r="O8">
-        <v>0.04034024372622288</v>
+        <v>0.3097824416141609</v>
       </c>
       <c r="P8">
-        <v>0.04034024372622288</v>
+        <v>0.3097824416141609</v>
       </c>
       <c r="Q8">
-        <v>26.62304060323137</v>
+        <v>3029.147278891032</v>
       </c>
       <c r="R8">
-        <v>26.62304060323137</v>
+        <v>27262.32551001929</v>
       </c>
       <c r="S8">
-        <v>0.004670349730402714</v>
+        <v>0.1296334693306654</v>
       </c>
       <c r="T8">
-        <v>0.004670349730402714</v>
+        <v>0.1296334693306654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>184.841802</v>
+      </c>
+      <c r="H9">
+        <v>554.525406</v>
+      </c>
+      <c r="I9">
+        <v>0.4184661617850055</v>
+      </c>
+      <c r="J9">
+        <v>0.4184661617850055</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.08724833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.261745</v>
+      </c>
+      <c r="O9">
+        <v>0.001649277530494842</v>
+      </c>
+      <c r="P9">
+        <v>0.001649277530494842</v>
+      </c>
+      <c r="Q9">
+        <v>16.12713915483</v>
+      </c>
+      <c r="R9">
+        <v>145.14425239347</v>
+      </c>
+      <c r="S9">
+        <v>0.0006901668379044289</v>
+      </c>
+      <c r="T9">
+        <v>0.0006901668379044289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>48.6386223924831</v>
-      </c>
-      <c r="H9">
-        <v>48.6386223924831</v>
-      </c>
-      <c r="I9">
-        <v>0.1157739591783078</v>
-      </c>
-      <c r="J9">
-        <v>0.1157739591783078</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.0213242563392</v>
-      </c>
-      <c r="N9">
-        <v>13.0213242563392</v>
-      </c>
-      <c r="O9">
-        <v>0.9596597562737771</v>
-      </c>
-      <c r="P9">
-        <v>0.9596597562737771</v>
-      </c>
-      <c r="Q9">
-        <v>633.3392735541631</v>
-      </c>
-      <c r="R9">
-        <v>633.3392735541631</v>
-      </c>
-      <c r="S9">
-        <v>0.1111036094479051</v>
-      </c>
-      <c r="T9">
-        <v>0.1111036094479051</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>95.23175666666667</v>
+      </c>
+      <c r="H10">
+        <v>285.69527</v>
+      </c>
+      <c r="I10">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="J10">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>35.86137133333333</v>
+      </c>
+      <c r="N10">
+        <v>107.584114</v>
+      </c>
+      <c r="O10">
+        <v>0.6778966622414776</v>
+      </c>
+      <c r="P10">
+        <v>0.6778966622414776</v>
+      </c>
+      <c r="Q10">
+        <v>3415.141388548976</v>
+      </c>
+      <c r="R10">
+        <v>30736.27249694078</v>
+      </c>
+      <c r="S10">
+        <v>0.1461522288920953</v>
+      </c>
+      <c r="T10">
+        <v>0.1461522288920953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>95.23175666666667</v>
+      </c>
+      <c r="H11">
+        <v>285.69527</v>
+      </c>
+      <c r="I11">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="J11">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5645386666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.693616</v>
+      </c>
+      <c r="O11">
+        <v>0.01067161861386675</v>
+      </c>
+      <c r="P11">
+        <v>0.01067161861386675</v>
+      </c>
+      <c r="Q11">
+        <v>53.76200893292445</v>
+      </c>
+      <c r="R11">
+        <v>483.85808039632</v>
+      </c>
+      <c r="S11">
+        <v>0.002300764899986209</v>
+      </c>
+      <c r="T11">
+        <v>0.002300764899986209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>95.23175666666667</v>
+      </c>
+      <c r="H12">
+        <v>285.69527</v>
+      </c>
+      <c r="I12">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="J12">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>16.38778266666667</v>
+      </c>
+      <c r="N12">
+        <v>49.163348</v>
+      </c>
+      <c r="O12">
+        <v>0.3097824416141609</v>
+      </c>
+      <c r="P12">
+        <v>0.3097824416141609</v>
+      </c>
+      <c r="Q12">
+        <v>1560.637331218218</v>
+      </c>
+      <c r="R12">
+        <v>14045.73598096396</v>
+      </c>
+      <c r="S12">
+        <v>0.06678804725758802</v>
+      </c>
+      <c r="T12">
+        <v>0.06678804725758802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>95.23175666666667</v>
+      </c>
+      <c r="H13">
+        <v>285.69527</v>
+      </c>
+      <c r="I13">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="J13">
+        <v>0.2155966197102082</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.08724833333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.261745</v>
+      </c>
+      <c r="O13">
+        <v>0.001649277530494842</v>
+      </c>
+      <c r="P13">
+        <v>0.001649277530494842</v>
+      </c>
+      <c r="Q13">
+        <v>8.308812049572222</v>
+      </c>
+      <c r="R13">
+        <v>74.77930844615</v>
+      </c>
+      <c r="S13">
+        <v>0.0003555786605386878</v>
+      </c>
+      <c r="T13">
+        <v>0.0003555786605386878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>50.778675</v>
+      </c>
+      <c r="H14">
+        <v>152.336025</v>
+      </c>
+      <c r="I14">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J14">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>35.86137133333333</v>
+      </c>
+      <c r="N14">
+        <v>107.584114</v>
+      </c>
+      <c r="O14">
+        <v>0.6778966622414776</v>
+      </c>
+      <c r="P14">
+        <v>0.6778966622414776</v>
+      </c>
+      <c r="Q14">
+        <v>1820.99291998965</v>
+      </c>
+      <c r="R14">
+        <v>16388.93627990685</v>
+      </c>
+      <c r="S14">
+        <v>0.07793006021524947</v>
+      </c>
+      <c r="T14">
+        <v>0.07793006021524948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>50.778675</v>
+      </c>
+      <c r="H15">
+        <v>152.336025</v>
+      </c>
+      <c r="I15">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J15">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5645386666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.693616</v>
+      </c>
+      <c r="O15">
+        <v>0.01067161861386675</v>
+      </c>
+      <c r="P15">
+        <v>0.01067161861386675</v>
+      </c>
+      <c r="Q15">
+        <v>28.6665254796</v>
+      </c>
+      <c r="R15">
+        <v>257.9987293164</v>
+      </c>
+      <c r="S15">
+        <v>0.001226794476938389</v>
+      </c>
+      <c r="T15">
+        <v>0.001226794476938389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>50.778675</v>
+      </c>
+      <c r="H16">
+        <v>152.336025</v>
+      </c>
+      <c r="I16">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J16">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.38778266666667</v>
+      </c>
+      <c r="N16">
+        <v>49.163348</v>
+      </c>
+      <c r="O16">
+        <v>0.3097824416141609</v>
+      </c>
+      <c r="P16">
+        <v>0.3097824416141609</v>
+      </c>
+      <c r="Q16">
+        <v>832.1498900013</v>
+      </c>
+      <c r="R16">
+        <v>7489.349010011701</v>
+      </c>
+      <c r="S16">
+        <v>0.03561215989586775</v>
+      </c>
+      <c r="T16">
+        <v>0.03561215989586776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>50.778675</v>
+      </c>
+      <c r="H17">
+        <v>152.336025</v>
+      </c>
+      <c r="I17">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="J17">
+        <v>0.1149586132458188</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.08724833333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.261745</v>
+      </c>
+      <c r="O17">
+        <v>0.001649277530494842</v>
+      </c>
+      <c r="P17">
+        <v>0.001649277530494842</v>
+      </c>
+      <c r="Q17">
+        <v>4.430354762625</v>
+      </c>
+      <c r="R17">
+        <v>39.873192863625</v>
+      </c>
+      <c r="S17">
+        <v>0.0001895986577631756</v>
+      </c>
+      <c r="T17">
+        <v>0.0001895986577631757</v>
       </c>
     </row>
   </sheetData>
